--- a/data/olhs_run1.xlsx
+++ b/data/olhs_run1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="592" documentId="13_ncr:1_{86A97CFE-042D-E84B-9B3A-A2422876EAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480108D6-99C7-42C7-B4DB-9A60E01013F6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19660" activeTab="1" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Design (OLHS)" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -341,7 +345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -447,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -589,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -606,19 +610,19 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -637,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -666,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -695,7 +699,7 @@
         <v>82.631578947368396</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -725,7 +729,7 @@
         <v>74.736842105263193</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A22" si="0">A4+1</f>
         <v>3</v>
@@ -755,7 +759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -785,7 +789,7 @@
         <v>77.894736842105303</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -815,7 +819,7 @@
         <v>92.105263157894697</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -845,7 +849,7 @@
         <v>84.210526315789494</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -875,7 +879,7 @@
         <v>71.578947368421098</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -905,7 +909,7 @@
         <v>81.052631578947398</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -935,7 +939,7 @@
         <v>73.157894736842096</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -965,7 +969,7 @@
         <v>98.421052631579002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -995,7 +999,7 @@
         <v>79.473684210526301</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1025,7 +1029,7 @@
         <v>85.789473684210506</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1055,7 +1059,7 @@
         <v>76.315789473684205</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1085,7 +1089,7 @@
         <v>87.368421052631604</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1115,7 +1119,7 @@
         <v>93.684210526315795</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1145,7 +1149,7 @@
         <v>95.263157894736906</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1175,7 +1179,7 @@
         <v>96.842105263157904</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1205,7 +1209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1235,7 +1239,7 @@
         <v>88.947368421052602</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1279,24 +1283,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498369C7-30ED-4465-89FD-A4CA38E6109C}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="13" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>67.91</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>53.62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>78.95</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1634,7 +1638,7 @@
         <v>56.85</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1719,7 +1723,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>80.45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1803,7 +1807,7 @@
         <v>79.38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>74.91</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>67.790000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1931,7 +1935,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>85.79</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>73.05</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>81.61</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>82.15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>35.53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2184,7 +2188,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>70.650000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -2235,7 +2239,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
@@ -2244,7 +2248,7 @@
       </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>13</v>
       </c>

--- a/data/olhs_run1.xlsx
+++ b/data/olhs_run1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuwildcat-my.sharepoint.com/personal/rmj4546_ads_northwestern_edu/Documents/Documents/NU/Projects/sprayableHydrogel_GT/sprayable-hydrogels/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="13_ncr:1_{86A97CFE-042D-E84B-9B3A-A2422876EAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480108D6-99C7-42C7-B4DB-9A60E01013F6}"/>
+  <xr:revisionPtr revIDLastSave="615" documentId="13_ncr:1_{86A97CFE-042D-E84B-9B3A-A2422876EAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C06D3175-A46C-458F-B3C0-CD70EBC1643F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19660" activeTab="1" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Design (OLHS)" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="3" r:id="rId2"/>
+    <sheet name="feasibility" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Block Size</t>
   </si>
@@ -305,9 +306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +346,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,7 +594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -607,22 +608,22 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection sqref="A1:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -641,7 +642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -670,7 +671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -699,7 +700,7 @@
         <v>82.631578947368396</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -729,7 +730,7 @@
         <v>74.736842105263193</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A22" si="0">A4+1</f>
         <v>3</v>
@@ -759,7 +760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -789,7 +790,7 @@
         <v>77.894736842105303</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -819,7 +820,7 @@
         <v>92.105263157894697</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -849,7 +850,7 @@
         <v>84.210526315789494</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -879,7 +880,7 @@
         <v>71.578947368421098</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -909,7 +910,7 @@
         <v>81.052631578947398</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -939,7 +940,7 @@
         <v>73.157894736842096</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -969,7 +970,7 @@
         <v>98.421052631579002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -999,7 +1000,7 @@
         <v>79.473684210526301</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1029,7 +1030,7 @@
         <v>85.789473684210506</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1059,7 +1060,7 @@
         <v>76.315789473684205</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1089,7 +1090,7 @@
         <v>87.368421052631604</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1119,7 +1120,7 @@
         <v>93.684210526315795</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1149,7 +1150,7 @@
         <v>95.263157894736906</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1179,7 +1180,7 @@
         <v>96.842105263157904</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1209,7 +1210,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1239,7 +1240,7 @@
         <v>88.947368421052602</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1283,24 +1284,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498369C7-30ED-4465-89FD-A4CA38E6109C}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>67.91</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>53.62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>78.95</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>56.85</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1765,7 +1766,7 @@
         <v>80.45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>79.38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>74.91</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>67.790000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>85.79</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>73.05</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>81.61</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2104,7 +2105,7 @@
         <v>82.15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>35.53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>70.650000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -2239,7 +2240,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
@@ -2248,7 +2249,7 @@
       </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>13</v>
       </c>
@@ -2263,4 +2264,132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9ED10A-C07B-4A8B-B026-E834F398AC15}">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/olhs_run1.xlsx
+++ b/data/olhs_run1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuwildcat-my.sharepoint.com/personal/rmj4546_ads_northwestern_edu/Documents/Documents/NU/Projects/sprayableHydrogel_GT/sprayable-hydrogels/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sprayable-hydrogels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="615" documentId="13_ncr:1_{86A97CFE-042D-E84B-9B3A-A2422876EAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C06D3175-A46C-458F-B3C0-CD70EBC1643F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F529F-C95C-4638-A1EE-C9F2361D94B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Design (OLHS)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
   <si>
     <t>Block Size</t>
   </si>
@@ -299,10 +299,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,7 +604,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I22"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2268,124 +2264,210 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9ED10A-C07B-4A8B-B026-E834F398AC15}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A22" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
         <v>0</v>
       </c>
     </row>

--- a/data/olhs_run1.xlsx
+++ b/data/olhs_run1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sprayable-hydrogels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F529F-C95C-4638-A1EE-C9F2361D94B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD341C9-E377-42F0-88D3-7D4F4A8A3E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Design (OLHS)" sheetId="1" r:id="rId1"/>
@@ -302,9 +302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -342,7 +342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -448,7 +448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,7 +604,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2267,7 +2267,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/olhs_run1.xlsx
+++ b/data/olhs_run1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sprayable-hydrogels\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuwildcat-my.sharepoint.com/personal/rmj4546_ads_northwestern_edu/Documents/Documents/NU/Projects/sprayableHydrogel_GT/sprayable-hydrogels/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD341C9-E377-42F0-88D3-7D4F4A8A3E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BDD341C9-E377-42F0-88D3-7D4F4A8A3E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3060F0BB-CF3F-FC4C-90B7-3646EF5C1BBF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Design (OLHS)" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="3" r:id="rId2"/>
-    <sheet name="feasibility" sheetId="4" r:id="rId3"/>
+    <sheet name="objectives" sheetId="5" r:id="rId3"/>
+    <sheet name="feasibility" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>Block Size</t>
   </si>
@@ -604,22 +605,22 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -638,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -667,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -696,7 +697,7 @@
         <v>82.631578947368396</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -726,7 +727,7 @@
         <v>74.736842105263193</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A22" si="0">A4+1</f>
         <v>3</v>
@@ -756,7 +757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -786,7 +787,7 @@
         <v>77.894736842105303</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -816,7 +817,7 @@
         <v>92.105263157894697</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -846,7 +847,7 @@
         <v>84.210526315789494</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -876,7 +877,7 @@
         <v>71.578947368421098</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -906,7 +907,7 @@
         <v>81.052631578947398</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -936,7 +937,7 @@
         <v>73.157894736842096</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -966,7 +967,7 @@
         <v>98.421052631579002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -996,7 +997,7 @@
         <v>79.473684210526301</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1026,7 +1027,7 @@
         <v>85.789473684210506</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1056,7 +1057,7 @@
         <v>76.315789473684205</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1086,7 +1087,7 @@
         <v>87.368421052631604</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1116,7 +1117,7 @@
         <v>93.684210526315795</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1146,7 +1147,7 @@
         <v>95.263157894736906</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1176,7 +1177,7 @@
         <v>96.842105263157904</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1206,7 +1207,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1236,7 +1237,7 @@
         <v>88.947368421052602</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1281,23 +1282,23 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="13" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>67.91</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>53.62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>78.95</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>56.85</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>80.45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>79.38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>74.91</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>67.790000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>85.79</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>73.05</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>81.61</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>82.15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>35.53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>70.650000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -2236,7 +2237,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
@@ -2245,7 +2246,7 @@
       </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>13</v>
       </c>
@@ -2263,20 +2264,368 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3DACCB-314E-CC43-B575-65C99DFD4606}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>51.344743276283623</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.2518</v>
+      </c>
+      <c r="D3" s="10">
+        <f>(8.261+1.67)/2</f>
+        <v>4.9654999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>20.121238340000001</v>
+      </c>
+      <c r="C4" s="10">
+        <v>56.635399999999997</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.53680000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A22" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>35.672397429999997</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3.4659</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.0362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>29.114323450000001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.5689000000000002</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>123.41772151898732</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.14074</v>
+      </c>
+      <c r="D7" s="10">
+        <f>(1.99497+1.80356)/2</f>
+        <v>1.899265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>81.196581196581207</v>
+      </c>
+      <c r="C8" s="10">
+        <v>88.700999999999993</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.0780000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>84.919472913616403</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.30367</v>
+      </c>
+      <c r="D9" s="10">
+        <f>(1.83259+4.55639-6.25807+4.55639)/2</f>
+        <v>2.3436500000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>64.625850340136054</v>
+      </c>
+      <c r="C10" s="10">
+        <v>27.808</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3.26369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>47.923322683706068</v>
+      </c>
+      <c r="C11" s="10">
+        <v>116.06</v>
+      </c>
+      <c r="D11" s="10">
+        <v>5.0880299999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>173.69727047146404</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2.0589</v>
+      </c>
+      <c r="D12" s="10">
+        <v>10.186500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>47.904191616766468</v>
+      </c>
+      <c r="C13" s="10">
+        <v>122.74</v>
+      </c>
+      <c r="D13" s="10">
+        <f>0.285</f>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>103.37078651685393</v>
+      </c>
+      <c r="C14" s="10">
+        <v>16.751000000000001</v>
+      </c>
+      <c r="D14" s="10">
+        <f>(2.69283+0.998842)/2</f>
+        <v>1.8458359999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>80.965909090909093</v>
+      </c>
+      <c r="C15" s="10">
+        <v>7.8525999999999998</v>
+      </c>
+      <c r="D15" s="10">
+        <v>9.4607799999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>63.909774436090217</v>
+      </c>
+      <c r="C16" s="10">
+        <v>114.01</v>
+      </c>
+      <c r="D16" s="10">
+        <v>41.8277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>35.087719298245609</v>
+      </c>
+      <c r="C17" s="10">
+        <v>45.478000000000002</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.88095500000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>120.21857923497268</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1.4751000000000001</v>
+      </c>
+      <c r="D18" s="10">
+        <v>9.7006599999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <v>152.43902439024393</v>
+      </c>
+      <c r="C19" s="10">
+        <v>15.3</v>
+      </c>
+      <c r="D19" s="10">
+        <f>(14.7+66.0426+20.5877+16.6909)/4</f>
+        <v>29.505299999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>79.096045197740111</v>
+      </c>
+      <c r="C20" s="10">
+        <v>29.05</v>
+      </c>
+      <c r="D20" s="10">
+        <v>15.7517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>116.31944444444446</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.47714000000000001</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3.0894700000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="10">
+        <v>57.750759878419451</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.1807</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9ED10A-C07B-4A8B-B026-E834F398AC15}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2284,7 +2633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2292,7 +2641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2300,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -2309,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A22" si="0">A4+1</f>
         <v>3</v>
@@ -2318,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2327,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2336,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2345,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2354,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2363,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2372,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2381,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2390,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2399,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2408,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2417,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2426,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2435,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2444,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2453,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2462,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>

--- a/data/olhs_run1.xlsx
+++ b/data/olhs_run1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuwildcat-my.sharepoint.com/personal/rmj4546_ads_northwestern_edu/Documents/Documents/NU/Projects/sprayableHydrogel_GT/sprayable-hydrogels/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sprayable-hydrogels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BDD341C9-E377-42F0-88D3-7D4F4A8A3E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3060F0BB-CF3F-FC4C-90B7-3646EF5C1BBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12994667-93D1-43B6-900C-E37A456E66B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Design (OLHS)" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="3" r:id="rId2"/>
     <sheet name="objectives" sheetId="5" r:id="rId3"/>
     <sheet name="feasibility" sheetId="4" r:id="rId4"/>
+    <sheet name="bo_data" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
   <si>
     <t>Block Size</t>
   </si>
@@ -608,19 +609,19 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -639,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -668,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -697,7 +698,7 @@
         <v>82.631578947368396</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -727,7 +728,7 @@
         <v>74.736842105263193</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A22" si="0">A4+1</f>
         <v>3</v>
@@ -757,7 +758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -787,7 +788,7 @@
         <v>77.894736842105303</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -817,7 +818,7 @@
         <v>92.105263157894697</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -847,7 +848,7 @@
         <v>84.210526315789494</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -877,7 +878,7 @@
         <v>71.578947368421098</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -907,7 +908,7 @@
         <v>81.052631578947398</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -937,7 +938,7 @@
         <v>73.157894736842096</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -967,7 +968,7 @@
         <v>98.421052631579002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -997,7 +998,7 @@
         <v>79.473684210526301</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1027,7 +1028,7 @@
         <v>85.789473684210506</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1057,7 +1058,7 @@
         <v>76.315789473684205</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1087,7 +1088,7 @@
         <v>87.368421052631604</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1117,7 +1118,7 @@
         <v>93.684210526315795</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1147,7 +1148,7 @@
         <v>95.263157894736906</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1177,7 +1178,7 @@
         <v>96.842105263157904</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1207,7 +1208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1237,7 +1238,7 @@
         <v>88.947368421052602</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1285,20 +1286,20 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>67.91</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>53.62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>78.95</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>56.85</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>80.45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>79.38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>74.91</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>67.790000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>85.79</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>73.05</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>81.61</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>82.15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2144,7 +2145,7 @@
         <v>35.53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>70.650000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -2237,7 +2238,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
@@ -2246,7 +2247,7 @@
       </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>13</v>
       </c>
@@ -2267,13 +2268,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3DACCB-314E-CC43-B575-65C99DFD4606}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>4.9654999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -2331,7 +2332,7 @@
         <v>0.53680000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A22" si="0">A4+1</f>
         <v>3</v>
@@ -2346,7 +2347,7 @@
         <v>1.0362</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2361,7 +2362,7 @@
         <v>0.99880000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2377,7 +2378,7 @@
         <v>1.899265</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2392,7 +2393,7 @@
         <v>1.0780000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2408,7 +2409,7 @@
         <v>2.3436500000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2423,7 +2424,7 @@
         <v>3.26369</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2438,7 +2439,7 @@
         <v>5.0880299999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2453,7 +2454,7 @@
         <v>10.186500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2469,7 +2470,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2485,7 +2486,7 @@
         <v>1.8458359999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2500,7 +2501,7 @@
         <v>9.4607799999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2515,7 +2516,7 @@
         <v>41.8277</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2530,7 +2531,7 @@
         <v>0.88095500000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2545,7 +2546,7 @@
         <v>9.7006599999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2561,7 +2562,7 @@
         <v>29.505299999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2576,7 +2577,7 @@
         <v>15.7517</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2591,7 +2592,7 @@
         <v>3.0894700000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2616,16 +2617,16 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -2658,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A22" si="0">A4+1</f>
         <v>3</v>
@@ -2667,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2676,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2685,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2694,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2703,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2712,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2721,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2730,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2739,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2748,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2757,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2766,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2775,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2784,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2793,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2802,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2811,12 +2812,429 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33452453-2DBF-403D-AF60-F82E1769B6E1}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>51.344743276283623</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.2518</v>
+      </c>
+      <c r="D3" s="10">
+        <f>(8.261+1.67)/2</f>
+        <v>4.9654999999999996</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>20.121238340000001</v>
+      </c>
+      <c r="C4" s="10">
+        <v>56.635399999999997</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A22" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>35.672397429999997</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3.4659</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.0362</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>29.114323450000001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.5689000000000002</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>123.41772151898732</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.14074</v>
+      </c>
+      <c r="D7" s="10">
+        <f>(1.99497+1.80356)/2</f>
+        <v>1.899265</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>81.196581196581207</v>
+      </c>
+      <c r="C8" s="10">
+        <v>88.700999999999993</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>84.919472913616403</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.30367</v>
+      </c>
+      <c r="D9" s="10">
+        <f>(1.83259+4.55639-6.25807+4.55639)/2</f>
+        <v>2.3436500000000002</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>64.625850340136054</v>
+      </c>
+      <c r="C10" s="10">
+        <v>27.808</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3.26369</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>47.923322683706068</v>
+      </c>
+      <c r="C11" s="10">
+        <v>116.06</v>
+      </c>
+      <c r="D11" s="10">
+        <v>5.0880299999999998</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>173.69727047146404</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2.0589</v>
+      </c>
+      <c r="D12" s="10">
+        <v>10.186500000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>47.904191616766468</v>
+      </c>
+      <c r="C13" s="10">
+        <v>122.74</v>
+      </c>
+      <c r="D13" s="10">
+        <f>0.285</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>103.37078651685393</v>
+      </c>
+      <c r="C14" s="10">
+        <v>16.751000000000001</v>
+      </c>
+      <c r="D14" s="10">
+        <f>(2.69283+0.998842)/2</f>
+        <v>1.8458359999999998</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>80.965909090909093</v>
+      </c>
+      <c r="C15" s="10">
+        <v>7.8525999999999998</v>
+      </c>
+      <c r="D15" s="10">
+        <v>9.4607799999999997</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>63.909774436090217</v>
+      </c>
+      <c r="C16" s="10">
+        <v>114.01</v>
+      </c>
+      <c r="D16" s="10">
+        <v>41.8277</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>35.087719298245609</v>
+      </c>
+      <c r="C17" s="10">
+        <v>45.478000000000002</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.88095500000000004</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>120.21857923497268</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1.4751000000000001</v>
+      </c>
+      <c r="D18" s="10">
+        <v>9.7006599999999992</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <v>152.43902439024393</v>
+      </c>
+      <c r="C19" s="10">
+        <v>15.3</v>
+      </c>
+      <c r="D19" s="10">
+        <f>(14.7+66.0426+20.5877+16.6909)/4</f>
+        <v>29.505299999999998</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>79.096045197740111</v>
+      </c>
+      <c r="C20" s="10">
+        <v>29.05</v>
+      </c>
+      <c r="D20" s="10">
+        <v>15.7517</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>116.31944444444446</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.47714000000000001</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3.0894700000000001E-2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="10">
+        <v>57.750759878419451</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.1807</v>
+      </c>
+      <c r="E22" s="7">
         <v>0</v>
       </c>
     </row>

--- a/data/olhs_run1.xlsx
+++ b/data/olhs_run1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sprayable-hydrogels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12994667-93D1-43B6-900C-E37A456E66B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB4408E-2C4F-4418-8BEA-E6EEDA4CD1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Design (OLHS)" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
   <si>
     <t>Block Size</t>
   </si>
@@ -154,13 +154,58 @@
   </si>
   <si>
     <t>Good or acceptable manufacturability</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>Acrylamide</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Lauryl Acrylate</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Stearyl Acrylate</t>
+  </si>
+  <si>
+    <t>IonM</t>
+  </si>
+  <si>
+    <t>Ionic Monomer</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>2-Propanol</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>Deionized Water</t>
+  </si>
+  <si>
+    <t>hydrophobic</t>
+  </si>
+  <si>
+    <t>hydrophilic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,8 +236,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +268,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEFF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -250,11 +307,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +383,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="A25:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1280,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498369C7-30ED-4465-89FD-A4CA38E6109C}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2254,10 +2361,75 @@
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
     </row>
+    <row r="27" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B25:C26"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2830,7 +3002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33452453-2DBF-403D-AF60-F82E1769B6E1}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/data/olhs_run1.xlsx
+++ b/data/olhs_run1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sprayable-hydrogels\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuwildcat-my.sharepoint.com/personal/rmj4546_ads_northwestern_edu/Documents/Documents/NU/Projects/sprayableHydrogel_GT/sprayable-hydrogels/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB4408E-2C4F-4418-8BEA-E6EEDA4CD1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4BB4408E-2C4F-4418-8BEA-E6EEDA4CD1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51AFC3B1-2682-A24C-8116-BD148D5D8DA1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19660" xr2:uid="{2E69A4AB-BA25-3440-870D-57BCBE9E2EF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Design (OLHS)" sheetId="1" r:id="rId1"/>
@@ -369,6 +369,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,9 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -408,6 +408,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,42 +716,42 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="A25:C31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -776,7 +780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -805,7 +809,7 @@
         <v>82.631578947368396</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -835,7 +839,7 @@
         <v>74.736842105263193</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A22" si="0">A4+1</f>
         <v>3</v>
@@ -865,7 +869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -895,7 +899,7 @@
         <v>77.894736842105303</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -925,7 +929,7 @@
         <v>92.105263157894697</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -955,7 +959,7 @@
         <v>84.210526315789494</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -985,7 +989,7 @@
         <v>71.578947368421098</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1015,7 +1019,7 @@
         <v>81.052631578947398</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1045,7 +1049,7 @@
         <v>73.157894736842096</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1075,7 +1079,7 @@
         <v>98.421052631579002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1105,7 +1109,7 @@
         <v>79.473684210526301</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1135,7 +1139,7 @@
         <v>85.789473684210506</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1165,7 +1169,7 @@
         <v>76.315789473684205</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1195,7 +1199,7 @@
         <v>87.368421052631604</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1225,7 +1229,7 @@
         <v>93.684210526315795</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1255,7 +1259,7 @@
         <v>95.263157894736906</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1285,7 +1289,7 @@
         <v>96.842105263157904</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1315,7 +1319,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1345,7 +1349,7 @@
         <v>88.947368421052602</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1389,24 +1393,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498369C7-30ED-4465-89FD-A4CA38E6109C}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C34"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="13" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>67.91</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1575,7 +1579,7 @@
         <v>53.62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>78.95</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>85.62</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1702,7 +1706,7 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1744,7 +1748,7 @@
         <v>56.85</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1787,7 +1791,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1829,7 +1833,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>80.45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1913,7 +1917,7 @@
         <v>79.38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1956,7 +1960,7 @@
         <v>74.91</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1999,7 +2003,7 @@
         <v>67.790000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -2041,7 +2045,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -2083,7 +2087,7 @@
         <v>85.79</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>73.05</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2167,7 +2171,7 @@
         <v>81.61</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2210,7 +2214,7 @@
         <v>82.15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>35.53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2336,92 +2340,92 @@
         <v>70.650000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="16"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:14" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:14" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:14" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:2" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2444,9 +2448,9 @@
       <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>4.9654999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -2504,7 +2508,7 @@
         <v>0.53680000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A22" si="0">A4+1</f>
         <v>3</v>
@@ -2519,7 +2523,7 @@
         <v>1.0362</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2534,7 +2538,7 @@
         <v>0.99880000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2550,7 +2554,7 @@
         <v>1.899265</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2565,7 +2569,7 @@
         <v>1.0780000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2581,7 +2585,7 @@
         <v>2.3436500000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2596,7 +2600,7 @@
         <v>3.26369</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2611,7 +2615,7 @@
         <v>5.0880299999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2626,7 +2630,7 @@
         <v>10.186500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2642,7 +2646,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2658,7 +2662,7 @@
         <v>1.8458359999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2673,7 +2677,7 @@
         <v>9.4607799999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2688,7 +2692,7 @@
         <v>41.8277</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2703,7 +2707,7 @@
         <v>0.88095500000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2718,7 +2722,7 @@
         <v>9.7006599999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2734,7 +2738,7 @@
         <v>29.505299999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2749,7 +2753,7 @@
         <v>15.7517</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2764,7 +2768,7 @@
         <v>3.0894700000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2792,13 +2796,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2806,7 +2810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2822,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -2831,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A22" si="0">A4+1</f>
         <v>3</v>
@@ -2840,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2849,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2858,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2867,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2876,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2885,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2894,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2903,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2912,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2921,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2930,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2939,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2948,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2957,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2966,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2975,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2984,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3006,12 +3010,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -3081,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A22" si="0">A4+1</f>
         <v>3</v>
@@ -3099,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3117,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3136,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3154,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3173,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3191,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3209,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3227,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3246,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3265,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3283,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3301,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3319,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3337,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3356,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3374,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3392,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
